--- a/Mapping Workbook.xlsx
+++ b/Mapping Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\GitHub\Sensor_Integration_Framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84F2620-2FFA-4D92-B628-EF3695C4B880}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DDD665-A3E2-40F2-B286-2D758CDE691C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1338" windowWidth="20274" windowHeight="10188" xr2:uid="{FB8A4E8C-A472-4E2F-9CBC-E0BCC670492D}"/>
+    <workbookView xWindow="1116" yWindow="1674" windowWidth="20274" windowHeight="10188" activeTab="3" xr2:uid="{FB8A4E8C-A472-4E2F-9CBC-E0BCC670492D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Base Data Types" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Properties!$A$4:$J$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Properties!$A$4:$J$101</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="440">
   <si>
     <t>Property</t>
   </si>
@@ -893,9 +893,6 @@
   </si>
   <si>
     <t>Valid Time</t>
-  </si>
-  <si>
-    <t>Temporal Position</t>
   </si>
   <si>
     <t>Position Override</t>
@@ -2046,6 +2043,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2106,6 +2115,15 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2139,11 +2157,39 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2159,55 +2205,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2982,7 +2979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFCB877-D229-44C8-A6EA-142DEDDAD39D}">
   <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -3019,11 +3016,11 @@
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
       <c r="M2" s="17"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
@@ -3042,11 +3039,11 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
-      <c r="J3" s="68">
+      <c r="J3" s="72">
         <v>43678</v>
       </c>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
       <c r="M3" s="20"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -3290,16 +3287,16 @@
       <c r="A15" s="14"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
-      <c r="D15" s="69" t="s">
-        <v>439</v>
-      </c>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="71"/>
+      <c r="D15" s="73" t="s">
+        <v>438</v>
+      </c>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="75"/>
       <c r="L15" s="19"/>
       <c r="M15" s="20"/>
       <c r="N15" s="14"/>
@@ -3313,14 +3310,14 @@
       <c r="A16" s="14"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="74"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="78"/>
       <c r="L16" s="19"/>
       <c r="M16" s="20"/>
       <c r="N16" s="14"/>
@@ -3334,14 +3331,14 @@
       <c r="A17" s="14"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="74"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="78"/>
       <c r="L17" s="19"/>
       <c r="M17" s="20"/>
       <c r="N17" s="14"/>
@@ -3355,14 +3352,14 @@
       <c r="A18" s="14"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="74"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="78"/>
       <c r="L18" s="19"/>
       <c r="M18" s="20"/>
       <c r="N18" s="14"/>
@@ -3376,14 +3373,14 @@
       <c r="A19" s="14"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="74"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="78"/>
       <c r="L19" s="19"/>
       <c r="M19" s="20"/>
       <c r="N19" s="14"/>
@@ -3397,14 +3394,14 @@
       <c r="A20" s="14"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="74"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="78"/>
       <c r="L20" s="19"/>
       <c r="M20" s="20"/>
       <c r="N20" s="14"/>
@@ -3418,14 +3415,14 @@
       <c r="A21" s="14"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="74"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="78"/>
       <c r="L21" s="19"/>
       <c r="M21" s="20"/>
       <c r="N21" s="14"/>
@@ -3439,14 +3436,14 @@
       <c r="A22" s="14"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="74"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="78"/>
       <c r="L22" s="19"/>
       <c r="M22" s="20"/>
       <c r="N22" s="14"/>
@@ -3460,14 +3457,14 @@
       <c r="A23" s="14"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="77"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="81"/>
       <c r="L23" s="19"/>
       <c r="M23" s="20"/>
       <c r="N23" s="14"/>
@@ -3628,16 +3625,16 @@
       <c r="A31" s="14"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="78" t="s">
+      <c r="D31" s="82" t="s">
         <v>240</v>
       </c>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
       <c r="L31" s="19"/>
       <c r="M31" s="20"/>
       <c r="N31" s="14"/>
@@ -3651,16 +3648,16 @@
       <c r="A32" s="14"/>
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
-      <c r="D32" s="79">
+      <c r="D32" s="83">
         <v>43678</v>
       </c>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
       <c r="L32" s="21"/>
       <c r="M32" s="20"/>
       <c r="N32" s="14"/>
@@ -3674,16 +3671,16 @@
       <c r="A33" s="14"/>
       <c r="B33" s="18"/>
       <c r="C33" s="19"/>
-      <c r="D33" s="78" t="s">
+      <c r="D33" s="82" t="s">
         <v>241</v>
       </c>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
       <c r="L33" s="21"/>
       <c r="M33" s="20"/>
       <c r="N33" s="14"/>
@@ -3739,16 +3736,16 @@
       <c r="A36" s="22"/>
       <c r="B36" s="23"/>
       <c r="C36" s="24"/>
-      <c r="D36" s="63" t="s">
+      <c r="D36" s="67" t="s">
         <v>242</v>
       </c>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
       <c r="L36" s="25"/>
       <c r="M36" s="26"/>
       <c r="N36" s="22"/>
@@ -3782,16 +3779,16 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="14"/>
       <c r="B38" s="18"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
       <c r="M38" s="20"/>
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
@@ -3803,16 +3800,16 @@
     <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="14"/>
       <c r="B39" s="18"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="65"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
       <c r="M39" s="20"/>
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
@@ -3824,16 +3821,16 @@
     <row r="40" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A40" s="14"/>
       <c r="B40" s="27"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
       <c r="M40" s="28"/>
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
@@ -5367,112 +5364,112 @@
   <sheetData>
     <row r="1" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="87" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="114"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="31"/>
-      <c r="C3" s="83" t="s">
-        <v>431</v>
-      </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
+      <c r="C3" s="90" t="s">
+        <v>430</v>
+      </c>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
       <c r="N3" s="32"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="31"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
       <c r="N4" s="32"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="31"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
       <c r="N5" s="32"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="31"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
       <c r="N6" s="32"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="31"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
       <c r="N7" s="32"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="31"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
       <c r="N8" s="32"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -5491,21 +5488,21 @@
       <c r="N9" s="32"/>
     </row>
     <row r="10" spans="2:14" ht="17.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="92" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="87"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="94"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="31"/>
@@ -5523,140 +5520,140 @@
       <c r="N11" s="32"/>
     </row>
     <row r="12" spans="2:14" s="34" customFormat="1" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="95" t="s">
         <v>245</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="90"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="97"/>
     </row>
     <row r="13" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="84" t="s">
+        <v>431</v>
+      </c>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="86"/>
+    </row>
+    <row r="14" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="98" t="s">
         <v>432</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="82"/>
-    </row>
-    <row r="14" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="91" t="s">
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="100"/>
+    </row>
+    <row r="15" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="84" t="s">
         <v>433</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="93"/>
-    </row>
-    <row r="15" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="80" t="s">
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="86"/>
+    </row>
+    <row r="16" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="84" t="s">
         <v>434</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="82"/>
-    </row>
-    <row r="16" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="80" t="s">
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="86"/>
+    </row>
+    <row r="17" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="101" t="s">
         <v>435</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="82"/>
-    </row>
-    <row r="17" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="115" t="s">
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="103"/>
+    </row>
+    <row r="18" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="101" t="s">
         <v>436</v>
       </c>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="117"/>
-    </row>
-    <row r="18" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="115" t="s">
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="103"/>
+    </row>
+    <row r="19" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="101" t="s">
         <v>437</v>
       </c>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="117"/>
-    </row>
-    <row r="19" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="115" t="s">
-        <v>438</v>
-      </c>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="117"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="103"/>
     </row>
     <row r="20" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="35"/>
@@ -5675,6 +5672,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B16:N16"/>
+    <mergeCell ref="B17:N17"/>
+    <mergeCell ref="B18:N18"/>
+    <mergeCell ref="B19:N19"/>
     <mergeCell ref="B15:N15"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="C3:M8"/>
@@ -5682,10 +5683,6 @@
     <mergeCell ref="B12:N12"/>
     <mergeCell ref="B13:N13"/>
     <mergeCell ref="B14:N14"/>
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="B17:N17"/>
-    <mergeCell ref="B18:N18"/>
-    <mergeCell ref="B19:N19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B13:N13" location="Instructions!A1" display="Tab 2 - Instructions" xr:uid="{8939B0B3-CA12-4667-BA24-6A9EE931C468}"/>
@@ -5725,21 +5722,21 @@
       <c r="N2" s="30"/>
     </row>
     <row r="3" spans="1:14" ht="17.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="85" t="s">
-        <v>426</v>
-      </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="87"/>
+      <c r="B3" s="92" t="s">
+        <v>425</v>
+      </c>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="94"/>
     </row>
     <row r="4" spans="1:14" ht="17.7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="38"/>
@@ -5758,19 +5755,19 @@
     </row>
     <row r="5" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="31"/>
-      <c r="C5" s="94" t="s">
-        <v>427</v>
-      </c>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
+      <c r="C5" s="104" t="s">
+        <v>426</v>
+      </c>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
       <c r="N5" s="32"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5790,119 +5787,119 @@
     </row>
     <row r="7" spans="1:14" ht="129.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="31"/>
-      <c r="C7" s="94" t="s">
-        <v>429</v>
-      </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
+      <c r="C7" s="104" t="s">
+        <v>428</v>
+      </c>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
       <c r="N7" s="32"/>
     </row>
     <row r="8" spans="1:14" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="31"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
       <c r="N8" s="32"/>
     </row>
     <row r="9" spans="1:14" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="31"/>
-      <c r="C9" s="94" t="s">
-        <v>440</v>
-      </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
+      <c r="C9" s="104" t="s">
+        <v>439</v>
+      </c>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
       <c r="N9" s="32"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="34"/>
       <c r="B10" s="43"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
       <c r="N10" s="44"/>
     </row>
     <row r="11" spans="1:14" ht="228.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="34"/>
       <c r="B11" s="45"/>
-      <c r="C11" s="94" t="s">
-        <v>428</v>
-      </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
+      <c r="C11" s="104" t="s">
+        <v>427</v>
+      </c>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
       <c r="N11" s="46"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="34"/>
       <c r="B12" s="45"/>
       <c r="C12" s="47"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
       <c r="N12" s="46"/>
     </row>
     <row r="13" spans="1:14" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="34"/>
       <c r="B13" s="45"/>
-      <c r="C13" s="94" t="s">
-        <v>430</v>
-      </c>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
+      <c r="C13" s="104" t="s">
+        <v>429</v>
+      </c>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
       <c r="N13" s="46"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -6075,10 +6072,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAE1FD7-D539-4C6D-9D6C-B67621FD5B93}">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6129,13 +6126,13 @@
         <v>98</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E4" s="57" t="s">
         <v>0</v>
@@ -6150,29 +6147,29 @@
         <v>129</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="60"/>
       <c r="B5" s="60"/>
       <c r="C5" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D5" s="102" t="s">
+        <v>369</v>
+      </c>
+      <c r="D5" s="64" t="s">
         <v>246</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>125</v>
@@ -6183,22 +6180,22 @@
     <row r="6" spans="1:10" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="12"/>
       <c r="B6" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="D6" s="101" t="s">
+        <v>369</v>
+      </c>
+      <c r="D6" s="63" t="s">
         <v>246</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>125</v>
@@ -6209,22 +6206,22 @@
     <row r="7" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="12"/>
       <c r="B7" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D7" s="101" t="s">
+        <v>369</v>
+      </c>
+      <c r="D7" s="63" t="s">
         <v>246</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>66</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>125</v>
@@ -6235,12 +6232,12 @@
     <row r="8" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="12"/>
       <c r="B8" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D8" s="101" t="s">
+        <v>369</v>
+      </c>
+      <c r="D8" s="63" t="s">
         <v>246</v>
       </c>
       <c r="E8" s="58" t="s">
@@ -6250,10 +6247,10 @@
         <v>68</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -6262,9 +6259,9 @@
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D9" s="101" t="s">
+        <v>369</v>
+      </c>
+      <c r="D9" s="63" t="s">
         <v>246</v>
       </c>
       <c r="E9" s="58" t="s">
@@ -6274,7 +6271,7 @@
         <v>71</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>125</v>
@@ -6285,22 +6282,22 @@
     <row r="10" spans="1:10" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="12"/>
       <c r="B10" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D10" s="101" t="s">
+        <v>369</v>
+      </c>
+      <c r="D10" s="63" t="s">
         <v>246</v>
       </c>
       <c r="E10" s="58" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>82</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>125</v>
@@ -6312,19 +6309,19 @@
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D11" s="101" t="s">
+        <v>369</v>
+      </c>
+      <c r="D11" s="63" t="s">
         <v>246</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>88</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>125</v>
@@ -6335,22 +6332,22 @@
     <row r="12" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="12"/>
       <c r="B12" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D12" s="101" t="s">
+        <v>369</v>
+      </c>
+      <c r="D12" s="63" t="s">
         <v>246</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>95</v>
       </c>
       <c r="G12" s="58" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>125</v>
@@ -6362,22 +6359,22 @@
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D13" s="101" t="s">
+        <v>369</v>
+      </c>
+      <c r="D13" s="63" t="s">
         <v>246</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>96</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -6385,25 +6382,25 @@
     <row r="14" spans="1:10" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="12"/>
       <c r="B14" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D14" s="101" t="s">
-        <v>363</v>
+        <v>369</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>362</v>
       </c>
       <c r="E14" s="58" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -6411,25 +6408,25 @@
     <row r="15" spans="1:10" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="12"/>
       <c r="B15" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D15" s="101" t="s">
-        <v>363</v>
+        <v>369</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>362</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -6437,25 +6434,25 @@
     <row r="16" spans="1:10" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="12"/>
       <c r="B16" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D16" s="101" t="s">
-        <v>363</v>
+        <v>369</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>362</v>
       </c>
       <c r="E16" s="58" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -6463,25 +6460,25 @@
     <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="12"/>
       <c r="B17" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D17" s="101" t="s">
-        <v>363</v>
+        <v>369</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>362</v>
       </c>
       <c r="E17" s="58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>94</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -6489,11 +6486,11 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="12"/>
       <c r="B18" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="101" t="s">
-        <v>364</v>
+      <c r="D18" s="63" t="s">
+        <v>363</v>
       </c>
       <c r="E18" s="58" t="s">
         <v>247</v>
@@ -6503,7 +6500,7 @@
         <v>226</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -6511,11 +6508,11 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="12"/>
       <c r="B19" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="101" t="s">
-        <v>364</v>
+      <c r="D19" s="63" t="s">
+        <v>363</v>
       </c>
       <c r="E19" s="58" t="s">
         <v>248</v>
@@ -6525,7 +6522,7 @@
         <v>226</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -6533,11 +6530,11 @@
     <row r="20" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C20" s="12"/>
-      <c r="D20" s="101" t="s">
-        <v>364</v>
+      <c r="D20" s="63" t="s">
+        <v>363</v>
       </c>
       <c r="E20" s="58" t="s">
         <v>249</v>
@@ -6547,7 +6544,7 @@
         <v>226</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -6555,25 +6552,25 @@
     <row r="21" spans="1:10" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="12"/>
       <c r="B21" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D21" s="101" t="s">
-        <v>365</v>
+        <v>369</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>364</v>
       </c>
       <c r="E21" s="58" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>60</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -6581,23 +6578,23 @@
     <row r="22" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="12"/>
       <c r="B22" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D22" s="101" t="s">
-        <v>365</v>
+        <v>369</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>364</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -6605,25 +6602,25 @@
     <row r="23" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="12"/>
       <c r="B23" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D23" s="101" t="s">
-        <v>365</v>
+        <v>369</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>364</v>
       </c>
       <c r="E23" s="58" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>62</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -6631,23 +6628,23 @@
     <row r="24" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="12"/>
       <c r="B24" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D24" s="101" t="s">
-        <v>365</v>
+        <v>369</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>364</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -6655,23 +6652,25 @@
     <row r="25" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="12"/>
       <c r="B25" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C25" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D25" s="101" t="s">
-        <v>365</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="F25" s="5"/>
+        <v>369</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>364</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="G25" s="5" t="s">
-        <v>226</v>
+        <v>314</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -6679,25 +6678,25 @@
     <row r="26" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="12"/>
       <c r="B26" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D26" s="101" t="s">
-        <v>365</v>
+        <v>369</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>366</v>
       </c>
       <c r="E26" s="58" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -6705,103 +6704,101 @@
     <row r="27" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="12"/>
       <c r="B27" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C27" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D27" s="101" t="s">
-        <v>367</v>
+        <v>369</v>
+      </c>
+      <c r="D27" s="63" t="s">
+        <v>366</v>
       </c>
       <c r="E27" s="58" t="s">
         <v>270</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:10" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="12"/>
       <c r="B28" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D28" s="101" t="s">
-        <v>367</v>
+        <v>369</v>
+      </c>
+      <c r="D28" s="63" t="s">
+        <v>366</v>
       </c>
       <c r="E28" s="58" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
     </row>
-    <row r="29" spans="1:10" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:10" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="12"/>
       <c r="B29" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D29" s="101" t="s">
-        <v>367</v>
+        <v>369</v>
+      </c>
+      <c r="D29" s="63" t="s">
+        <v>366</v>
       </c>
       <c r="E29" s="58" t="s">
         <v>292</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="1:10" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="12"/>
-      <c r="B30" s="60" t="s">
-        <v>370</v>
-      </c>
+      <c r="B30" s="12"/>
       <c r="C30" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D30" s="101" t="s">
-        <v>367</v>
+        <v>369</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>365</v>
       </c>
       <c r="E30" s="58" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>343</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>321</v>
+        <v>125</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
@@ -6810,19 +6807,19 @@
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D31" s="101" t="s">
-        <v>366</v>
+        <v>369</v>
+      </c>
+      <c r="D31" s="63" t="s">
+        <v>365</v>
       </c>
       <c r="E31" s="58" t="s">
         <v>265</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>125</v>
@@ -6834,16 +6831,16 @@
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D32" s="101" t="s">
-        <v>366</v>
+        <v>369</v>
+      </c>
+      <c r="D32" s="63" t="s">
+        <v>365</v>
       </c>
       <c r="E32" s="58" t="s">
         <v>266</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>344</v>
@@ -6858,16 +6855,16 @@
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D33" s="101" t="s">
-        <v>366</v>
+        <v>369</v>
+      </c>
+      <c r="D33" s="63" t="s">
+        <v>365</v>
       </c>
       <c r="E33" s="58" t="s">
         <v>267</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>345</v>
@@ -6878,23 +6875,23 @@
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
     </row>
-    <row r="34" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:10" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D34" s="101" t="s">
-        <v>366</v>
+        <v>369</v>
+      </c>
+      <c r="D34" s="63" t="s">
+        <v>365</v>
       </c>
       <c r="E34" s="58" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>125</v>
@@ -6902,23 +6899,23 @@
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
     </row>
-    <row r="35" spans="1:10" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:10" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D35" s="101" t="s">
-        <v>366</v>
+        <v>369</v>
+      </c>
+      <c r="D35" s="63" t="s">
+        <v>365</v>
       </c>
       <c r="E35" s="58" t="s">
         <v>280</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>125</v>
@@ -6926,20 +6923,20 @@
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
     </row>
-    <row r="36" spans="1:10" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D36" s="101" t="s">
-        <v>366</v>
+        <v>369</v>
+      </c>
+      <c r="D36" s="63" t="s">
+        <v>365</v>
       </c>
       <c r="E36" s="58" t="s">
         <v>281</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>344</v>
@@ -6950,23 +6947,23 @@
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
     </row>
-    <row r="37" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D37" s="101" t="s">
-        <v>366</v>
+        <v>369</v>
+      </c>
+      <c r="D37" s="63" t="s">
+        <v>365</v>
       </c>
       <c r="E37" s="58" t="s">
         <v>282</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>125</v>
@@ -6974,23 +6971,23 @@
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:10" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D38" s="101" t="s">
-        <v>366</v>
+        <v>369</v>
+      </c>
+      <c r="D38" s="63" t="s">
+        <v>365</v>
       </c>
       <c r="E38" s="58" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>125</v>
@@ -6998,102 +6995,104 @@
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
     </row>
-    <row r="39" spans="1:10" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D39" s="101" t="s">
-        <v>366</v>
+        <v>369</v>
+      </c>
+      <c r="D39" s="63" t="s">
+        <v>365</v>
       </c>
       <c r="E39" s="58" t="s">
-        <v>303</v>
+        <v>64</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>125</v>
+        <v>320</v>
       </c>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
     </row>
     <row r="40" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
+      <c r="B40" s="60" t="s">
+        <v>369</v>
+      </c>
       <c r="C40" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D40" s="101" t="s">
-        <v>366</v>
+        <v>369</v>
+      </c>
+      <c r="D40" s="63" t="s">
+        <v>367</v>
       </c>
       <c r="E40" s="58" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>332</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>321</v>
+        <v>125</v>
       </c>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:10" ht="129.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A41" s="12"/>
       <c r="B41" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C41" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D41" s="101" t="s">
-        <v>368</v>
+        <v>369</v>
+      </c>
+      <c r="D41" s="63" t="s">
+        <v>367</v>
       </c>
       <c r="E41" s="58" t="s">
-        <v>20</v>
+        <v>274</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>333</v>
+        <v>274</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>125</v>
+        <v>263</v>
       </c>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
     </row>
-    <row r="42" spans="1:10" ht="129.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A42" s="12"/>
       <c r="B42" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C42" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D42" s="101" t="s">
-        <v>368</v>
+        <v>369</v>
+      </c>
+      <c r="D42" s="63" t="s">
+        <v>367</v>
       </c>
       <c r="E42" s="58" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
@@ -7101,22 +7100,22 @@
     <row r="43" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" s="12"/>
       <c r="B43" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C43" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D43" s="101" t="s">
-        <v>368</v>
+        <v>369</v>
+      </c>
+      <c r="D43" s="63" t="s">
+        <v>367</v>
       </c>
       <c r="E43" s="58" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>125</v>
@@ -7127,22 +7126,22 @@
     <row r="44" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44" s="12"/>
       <c r="B44" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C44" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D44" s="101" t="s">
-        <v>368</v>
+        <v>369</v>
+      </c>
+      <c r="D44" s="63" t="s">
+        <v>367</v>
       </c>
       <c r="E44" s="58" t="s">
         <v>287</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>125</v>
@@ -7153,22 +7152,22 @@
     <row r="45" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A45" s="12"/>
       <c r="B45" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C45" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D45" s="101" t="s">
-        <v>368</v>
+        <v>369</v>
+      </c>
+      <c r="D45" s="63" t="s">
+        <v>367</v>
       </c>
       <c r="E45" s="58" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H45" s="9" t="s">
         <v>125</v>
@@ -7179,25 +7178,25 @@
     <row r="46" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A46" s="12"/>
       <c r="B46" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C46" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D46" s="101" t="s">
-        <v>368</v>
+        <v>369</v>
+      </c>
+      <c r="D46" s="63" t="s">
+        <v>367</v>
       </c>
       <c r="E46" s="58" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>125</v>
+        <v>263</v>
       </c>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
@@ -7205,25 +7204,25 @@
     <row r="47" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="12"/>
       <c r="B47" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C47" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D47" s="101" t="s">
-        <v>368</v>
+        <v>369</v>
+      </c>
+      <c r="D47" s="63" t="s">
+        <v>367</v>
       </c>
       <c r="E47" s="58" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>264</v>
+        <v>117</v>
       </c>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
@@ -7231,25 +7230,25 @@
     <row r="48" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A48" s="12"/>
       <c r="B48" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C48" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D48" s="101" t="s">
-        <v>368</v>
+        <v>369</v>
+      </c>
+      <c r="D48" s="63" t="s">
+        <v>367</v>
       </c>
       <c r="E48" s="58" t="s">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
@@ -7257,25 +7256,25 @@
     <row r="49" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A49" s="12"/>
       <c r="B49" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C49" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D49" s="101" t="s">
-        <v>368</v>
+        <v>369</v>
+      </c>
+      <c r="D49" s="63" t="s">
+        <v>367</v>
       </c>
       <c r="E49" s="58" t="s">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>264</v>
+        <v>123</v>
       </c>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
@@ -7283,72 +7282,70 @@
     <row r="50" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A50" s="12"/>
       <c r="B50" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C50" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D50" s="101" t="s">
-        <v>368</v>
+        <v>369</v>
+      </c>
+      <c r="D50" s="63" t="s">
+        <v>367</v>
       </c>
       <c r="E50" s="58" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
     </row>
-    <row r="51" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:10" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A51" s="12"/>
-      <c r="B51" s="60" t="s">
-        <v>370</v>
-      </c>
+      <c r="B51" s="12"/>
       <c r="C51" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D51" s="101" t="s">
+        <v>369</v>
+      </c>
+      <c r="D51" s="63" t="s">
         <v>368</v>
       </c>
       <c r="E51" s="58" t="s">
-        <v>320</v>
+        <v>6</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="I51" s="12"/>
       <c r="J51" s="12"/>
     </row>
-    <row r="52" spans="1:10" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D52" s="101" t="s">
-        <v>369</v>
+        <v>369</v>
+      </c>
+      <c r="D52" s="63" t="s">
+        <v>368</v>
       </c>
       <c r="E52" s="58" t="s">
-        <v>6</v>
+        <v>268</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>114</v>
@@ -7356,23 +7353,23 @@
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
     </row>
-    <row r="53" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D53" s="101" t="s">
-        <v>369</v>
+        <v>369</v>
+      </c>
+      <c r="D53" s="63" t="s">
+        <v>368</v>
       </c>
       <c r="E53" s="58" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>114</v>
@@ -7384,19 +7381,19 @@
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D54" s="101" t="s">
-        <v>369</v>
+        <v>369</v>
+      </c>
+      <c r="D54" s="63" t="s">
+        <v>368</v>
       </c>
       <c r="E54" s="58" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>114</v>
@@ -7408,19 +7405,19 @@
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D55" s="101" t="s">
-        <v>369</v>
+        <v>369</v>
+      </c>
+      <c r="D55" s="63" t="s">
+        <v>368</v>
       </c>
       <c r="E55" s="58" t="s">
-        <v>13</v>
+        <v>271</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H55" s="9" t="s">
         <v>114</v>
@@ -7428,23 +7425,23 @@
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
     </row>
-    <row r="56" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:10" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D56" s="101" t="s">
-        <v>369</v>
+        <v>369</v>
+      </c>
+      <c r="D56" s="63" t="s">
+        <v>368</v>
       </c>
       <c r="E56" s="58" t="s">
         <v>272</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>114</v>
@@ -7456,19 +7453,19 @@
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D57" s="101" t="s">
-        <v>369</v>
+        <v>369</v>
+      </c>
+      <c r="D57" s="63" t="s">
+        <v>368</v>
       </c>
       <c r="E57" s="58" t="s">
         <v>273</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H57" s="9" t="s">
         <v>114</v>
@@ -7476,23 +7473,23 @@
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
     </row>
-    <row r="58" spans="1:10" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D58" s="101" t="s">
-        <v>369</v>
+        <v>369</v>
+      </c>
+      <c r="D58" s="63" t="s">
+        <v>368</v>
       </c>
       <c r="E58" s="58" t="s">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>114</v>
@@ -7504,19 +7501,19 @@
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D59" s="101" t="s">
-        <v>369</v>
+        <v>369</v>
+      </c>
+      <c r="D59" s="63" t="s">
+        <v>368</v>
       </c>
       <c r="E59" s="58" t="s">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H59" s="9" t="s">
         <v>114</v>
@@ -7528,19 +7525,19 @@
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D60" s="101" t="s">
-        <v>369</v>
+        <v>369</v>
+      </c>
+      <c r="D60" s="63" t="s">
+        <v>368</v>
       </c>
       <c r="E60" s="58" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>114</v>
@@ -7548,23 +7545,23 @@
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
     </row>
-    <row r="61" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:10" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D61" s="101" t="s">
-        <v>369</v>
+        <v>369</v>
+      </c>
+      <c r="D61" s="63" t="s">
+        <v>368</v>
       </c>
       <c r="E61" s="58" t="s">
-        <v>279</v>
+        <v>37</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H61" s="9" t="s">
         <v>114</v>
@@ -7572,23 +7569,23 @@
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
     </row>
-    <row r="62" spans="1:10" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D62" s="101" t="s">
-        <v>369</v>
+        <v>369</v>
+      </c>
+      <c r="D62" s="63" t="s">
+        <v>368</v>
       </c>
       <c r="E62" s="58" t="s">
-        <v>37</v>
+        <v>316</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>114</v>
@@ -7600,23 +7597,17 @@
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D63" s="101" t="s">
-        <v>369</v>
-      </c>
-      <c r="E63" s="58" t="s">
-        <v>317</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>114</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="9"/>
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
     </row>
@@ -7624,13 +7615,13 @@
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -7642,17 +7633,21 @@
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>253</v>
+        <v>369</v>
+      </c>
+      <c r="D65" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="E65" s="58" t="s">
+        <v>255</v>
       </c>
       <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="9"/>
+      <c r="G65" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>320</v>
+      </c>
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
     </row>
@@ -7660,20 +7655,20 @@
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D66" s="101" t="s">
-        <v>257</v>
+        <v>369</v>
+      </c>
+      <c r="D66" s="63" t="s">
+        <v>256</v>
       </c>
       <c r="E66" s="58" t="s">
-        <v>256</v>
+        <v>348</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
@@ -7682,20 +7677,20 @@
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D67" s="101" t="s">
+        <v>369</v>
+      </c>
+      <c r="D67" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="E67" s="58" t="s">
         <v>257</v>
-      </c>
-      <c r="E67" s="58" t="s">
-        <v>349</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
@@ -7704,20 +7699,20 @@
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D68" s="101" t="s">
-        <v>257</v>
+        <v>369</v>
+      </c>
+      <c r="D68" s="63" t="s">
+        <v>256</v>
       </c>
       <c r="E68" s="58" t="s">
         <v>258</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
@@ -7726,20 +7721,20 @@
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D69" s="101" t="s">
-        <v>257</v>
+        <v>369</v>
+      </c>
+      <c r="D69" s="63" t="s">
+        <v>256</v>
       </c>
       <c r="E69" s="58" t="s">
         <v>259</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
@@ -7748,66 +7743,68 @@
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D70" s="101" t="s">
-        <v>257</v>
+        <v>369</v>
+      </c>
+      <c r="D70" s="63" t="s">
+        <v>354</v>
       </c>
       <c r="E70" s="58" t="s">
-        <v>260</v>
+        <v>49</v>
       </c>
       <c r="F70" s="5"/>
-      <c r="G70" s="5" t="s">
-        <v>348</v>
+      <c r="G70" s="58" t="s">
+        <v>350</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>321</v>
+        <v>125</v>
       </c>
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
     </row>
-    <row r="71" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:10" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D71" s="101" t="s">
-        <v>355</v>
+        <v>369</v>
+      </c>
+      <c r="D71" s="63" t="s">
+        <v>354</v>
       </c>
       <c r="E71" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="F71" s="5"/>
-      <c r="G71" s="58" t="s">
-        <v>351</v>
+        <v>50</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="I71" s="12"/>
       <c r="J71" s="12"/>
     </row>
-    <row r="72" spans="1:10" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D72" s="101" t="s">
-        <v>355</v>
+        <v>369</v>
+      </c>
+      <c r="D72" s="63" t="s">
+        <v>354</v>
       </c>
       <c r="E72" s="58" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>340</v>
+        <v>86</v>
+      </c>
+      <c r="G72" s="58" t="s">
+        <v>350</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="I72" s="12"/>
       <c r="J72" s="12"/>
@@ -7816,22 +7813,22 @@
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D73" s="101" t="s">
+        <v>369</v>
+      </c>
+      <c r="D73" s="63" t="s">
         <v>355</v>
       </c>
       <c r="E73" s="58" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G73" s="58" t="s">
-        <v>351</v>
+        <v>34</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>125</v>
+        <v>320</v>
       </c>
       <c r="I73" s="12"/>
       <c r="J73" s="12"/>
@@ -7840,22 +7837,22 @@
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D74" s="101" t="s">
-        <v>356</v>
+        <v>369</v>
+      </c>
+      <c r="D74" s="63" t="s">
+        <v>355</v>
       </c>
       <c r="E74" s="58" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>338</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>321</v>
+        <v>125</v>
       </c>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
@@ -7864,19 +7861,19 @@
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D75" s="101" t="s">
-        <v>356</v>
+        <v>369</v>
+      </c>
+      <c r="D75" s="63" t="s">
+        <v>355</v>
       </c>
       <c r="E75" s="58" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>339</v>
+        <v>75</v>
+      </c>
+      <c r="G75" s="58" t="s">
+        <v>349</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>125</v>
@@ -7884,50 +7881,50 @@
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
     </row>
-    <row r="76" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D76" s="101" t="s">
+        <v>369</v>
+      </c>
+      <c r="D76" s="63" t="s">
         <v>356</v>
       </c>
       <c r="E76" s="58" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G76" s="58" t="s">
-        <v>350</v>
+        <v>36</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>125</v>
+        <v>320</v>
       </c>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
     </row>
-    <row r="77" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D77" s="101" t="s">
-        <v>357</v>
+        <v>369</v>
+      </c>
+      <c r="D77" s="63" t="s">
+        <v>356</v>
       </c>
       <c r="E77" s="58" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>338</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>321</v>
+        <v>125</v>
       </c>
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
@@ -7936,19 +7933,19 @@
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D78" s="101" t="s">
-        <v>357</v>
+        <v>369</v>
+      </c>
+      <c r="D78" s="63" t="s">
+        <v>356</v>
       </c>
       <c r="E78" s="58" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>125</v>
@@ -7960,22 +7957,22 @@
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D79" s="101" t="s">
-        <v>357</v>
+        <v>369</v>
+      </c>
+      <c r="D79" s="63" t="s">
+        <v>262</v>
       </c>
       <c r="E79" s="58" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>125</v>
+        <v>320</v>
       </c>
       <c r="I79" s="12"/>
       <c r="J79" s="12"/>
@@ -7984,40 +7981,40 @@
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D80" s="101" t="s">
-        <v>263</v>
+        <v>369</v>
+      </c>
+      <c r="D80" s="63" t="s">
+        <v>262</v>
       </c>
       <c r="E80" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F80" s="5"/>
       <c r="G80" s="5" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>321</v>
+        <v>125</v>
       </c>
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
     </row>
-    <row r="81" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:10" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D81" s="101" t="s">
-        <v>263</v>
+        <v>369</v>
+      </c>
+      <c r="D81" s="63" t="s">
+        <v>262</v>
       </c>
       <c r="E81" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G81" s="58" t="s">
         <v>352</v>
       </c>
       <c r="H81" s="9" t="s">
@@ -8026,23 +8023,23 @@
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
     </row>
-    <row r="82" spans="1:10" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:10" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D82" s="101" t="s">
-        <v>263</v>
+        <v>369</v>
+      </c>
+      <c r="D82" s="63" t="s">
+        <v>262</v>
       </c>
       <c r="E82" s="58" t="s">
         <v>295</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G82" s="58" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H82" s="9" t="s">
         <v>125</v>
@@ -8050,26 +8047,26 @@
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
     </row>
-    <row r="83" spans="1:10" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D83" s="101" t="s">
-        <v>263</v>
+        <v>369</v>
+      </c>
+      <c r="D83" s="63" t="s">
+        <v>262</v>
       </c>
       <c r="E83" s="58" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G83" s="58" t="s">
-        <v>353</v>
+        <v>59</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>125</v>
+        <v>320</v>
       </c>
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
@@ -8078,23 +8075,21 @@
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D84" s="101" t="s">
-        <v>263</v>
+        <v>369</v>
+      </c>
+      <c r="D84" s="63" t="s">
+        <v>262</v>
       </c>
       <c r="E84" s="58" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>321</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="H84" s="9"/>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
     </row>
@@ -8102,115 +8097,119 @@
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D85" s="101" t="s">
-        <v>263</v>
+        <v>369</v>
+      </c>
+      <c r="D85" s="63" t="s">
+        <v>262</v>
       </c>
       <c r="E85" s="58" t="s">
         <v>306</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="H85" s="9"/>
+        <v>333</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
     </row>
-    <row r="86" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:10" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D86" s="101" t="s">
-        <v>263</v>
+        <v>369</v>
+      </c>
+      <c r="D86" s="63" t="s">
+        <v>262</v>
       </c>
       <c r="E86" s="58" t="s">
         <v>307</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="H86" s="9" t="s">
-        <v>125</v>
-      </c>
+      <c r="H86" s="9"/>
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
     </row>
-    <row r="87" spans="1:10" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D87" s="101" t="s">
-        <v>263</v>
+        <v>369</v>
+      </c>
+      <c r="D87" s="63" t="s">
+        <v>262</v>
       </c>
       <c r="E87" s="58" t="s">
         <v>308</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="H87" s="9"/>
+      <c r="H87" s="9" t="s">
+        <v>123</v>
+      </c>
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
     </row>
-    <row r="88" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
+    <row r="88" spans="1:10" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A88" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="B88" s="60" t="s">
+        <v>369</v>
+      </c>
       <c r="C88" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D88" s="101" t="s">
-        <v>263</v>
+        <v>369</v>
+      </c>
+      <c r="D88" s="63" t="s">
+        <v>260</v>
       </c>
       <c r="E88" s="58" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I88" s="12"/>
       <c r="J88" s="12"/>
     </row>
-    <row r="89" spans="1:10" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A89" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B89" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C89" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D89" s="101" t="s">
-        <v>261</v>
-      </c>
-      <c r="E89" s="58" t="s">
-        <v>276</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="D89" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="F89" s="5"/>
       <c r="G89" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H89" s="9" t="s">
         <v>117</v>
@@ -8220,79 +8219,81 @@
     </row>
     <row r="90" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A90" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B90" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C90" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D90" s="101" t="s">
-        <v>261</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="F90" s="5"/>
+        <v>369</v>
+      </c>
+      <c r="D90" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="E90" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="G90" s="5" t="s">
         <v>361</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>117</v>
+        <v>320</v>
       </c>
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
     </row>
     <row r="91" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A91" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B91" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C91" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D91" s="101" t="s">
-        <v>261</v>
+        <v>369</v>
+      </c>
+      <c r="D91" s="63" t="s">
+        <v>260</v>
       </c>
       <c r="E91" s="58" t="s">
-        <v>107</v>
+        <v>293</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>321</v>
+        <v>117</v>
       </c>
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
     </row>
     <row r="92" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A92" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B92" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C92" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D92" s="101" t="s">
-        <v>261</v>
+        <v>369</v>
+      </c>
+      <c r="D92" s="63" t="s">
+        <v>260</v>
       </c>
       <c r="E92" s="58" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H92" s="9" t="s">
         <v>117</v>
@@ -8302,25 +8303,23 @@
     </row>
     <row r="93" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A93" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B93" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C93" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D93" s="101" t="s">
-        <v>261</v>
+        <v>369</v>
+      </c>
+      <c r="D93" s="63" t="s">
+        <v>260</v>
       </c>
       <c r="E93" s="58" t="s">
-        <v>297</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>57</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="F93" s="5"/>
       <c r="G93" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H93" s="9" t="s">
         <v>117</v>
@@ -8330,23 +8329,23 @@
     </row>
     <row r="94" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A94" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B94" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C94" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D94" s="101" t="s">
-        <v>261</v>
+        <v>369</v>
+      </c>
+      <c r="D94" s="63" t="s">
+        <v>260</v>
       </c>
       <c r="E94" s="58" t="s">
-        <v>224</v>
+        <v>357</v>
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H94" s="9" t="s">
         <v>117</v>
@@ -8356,23 +8355,23 @@
     </row>
     <row r="95" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A95" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B95" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C95" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D95" s="101" t="s">
-        <v>261</v>
+        <v>369</v>
+      </c>
+      <c r="D95" s="63" t="s">
+        <v>260</v>
       </c>
       <c r="E95" s="58" t="s">
         <v>358</v>
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H95" s="9" t="s">
         <v>117</v>
@@ -8382,23 +8381,23 @@
     </row>
     <row r="96" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A96" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B96" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C96" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D96" s="101" t="s">
-        <v>261</v>
+        <v>369</v>
+      </c>
+      <c r="D96" s="63" t="s">
+        <v>260</v>
       </c>
       <c r="E96" s="58" t="s">
         <v>359</v>
       </c>
       <c r="F96" s="5"/>
       <c r="G96" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H96" s="9" t="s">
         <v>117</v>
@@ -8406,25 +8405,27 @@
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
     </row>
-    <row r="97" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:10" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A97" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B97" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C97" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D97" s="101" t="s">
-        <v>261</v>
+        <v>369</v>
+      </c>
+      <c r="D97" s="63" t="s">
+        <v>260</v>
       </c>
       <c r="E97" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G97" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="H97" s="9" t="s">
         <v>117</v>
@@ -8432,27 +8433,27 @@
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
     </row>
-    <row r="98" spans="1:10" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A98" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B98" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C98" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D98" s="101" t="s">
-        <v>261</v>
+        <v>369</v>
+      </c>
+      <c r="D98" s="63" t="s">
+        <v>260</v>
       </c>
       <c r="E98" s="58" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H98" s="9" t="s">
         <v>117</v>
@@ -8460,27 +8461,25 @@
       <c r="I98" s="12"/>
       <c r="J98" s="12"/>
     </row>
-    <row r="99" spans="1:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A99" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B99" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C99" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D99" s="101" t="s">
+        <v>369</v>
+      </c>
+      <c r="D99" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="E99" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E99" s="58" t="s">
-        <v>311</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="F99" s="5"/>
       <c r="G99" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H99" s="9" t="s">
         <v>117</v>
@@ -8488,25 +8487,27 @@
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
     </row>
-    <row r="100" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B100" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C100" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D100" s="101" t="s">
-        <v>261</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="F100" s="5"/>
+        <v>369</v>
+      </c>
+      <c r="D100" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="E100" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="G100" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H100" s="9" t="s">
         <v>117</v>
@@ -8515,49 +8516,21 @@
       <c r="J100" s="12"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="B101" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="C101" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D101" s="101" t="s">
-        <v>261</v>
-      </c>
-      <c r="E101" s="58" t="s">
-        <v>313</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="H101" s="9" t="s">
-        <v>117</v>
-      </c>
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="58"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="9"/>
       <c r="I101" s="12"/>
       <c r="J101" s="12"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="58"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A4:J102" xr:uid="{51E731CF-5A3A-4AD7-B336-B7287CFCE75E}">
-    <sortState ref="A5:J102">
-      <sortCondition ref="D4:D102"/>
+  <autoFilter ref="A4:J101" xr:uid="{51E731CF-5A3A-4AD7-B336-B7287CFCE75E}">
+    <sortState ref="A5:J101">
+      <sortCondition ref="D4:D101"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8599,30 +8572,30 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="B4" s="104" t="s">
+        <v>387</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>378</v>
+      </c>
+      <c r="D4" s="66" t="s">
         <v>397</v>
       </c>
-      <c r="C4" s="104" t="s">
-        <v>379</v>
-      </c>
-      <c r="D4" s="104" t="s">
-        <v>398</v>
-      </c>
-      <c r="E4" s="104" t="s">
-        <v>371</v>
+      <c r="E4" s="66" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="103" t="s">
-        <v>383</v>
+      <c r="A5" s="65" t="s">
+        <v>382</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8630,16 +8603,16 @@
         <v>99</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>390</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8647,16 +8620,16 @@
         <v>100</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8664,16 +8637,16 @@
         <v>101</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8681,33 +8654,33 @@
         <v>102</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8715,16 +8688,16 @@
         <v>103</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8732,16 +8705,16 @@
         <v>104</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8749,16 +8722,16 @@
         <v>105</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8775,16 +8748,16 @@
         <v>199</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>199</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8792,16 +8765,16 @@
         <v>107</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8815,7 +8788,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -8824,19 +8797,19 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8844,16 +8817,16 @@
         <v>109</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8867,7 +8840,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -8879,16 +8852,16 @@
         <v>111</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8896,7 +8869,7 @@
         <v>203</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>203</v>
@@ -8905,7 +8878,7 @@
         <v>203</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8918,110 +8891,110 @@
       <c r="E25" s="7"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="110" t="s">
-        <v>425</v>
-      </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
+      <c r="A27" s="108" t="s">
+        <v>424</v>
+      </c>
+      <c r="B27" s="108"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="109" t="s">
-        <v>413</v>
-      </c>
-      <c r="B31" s="109"/>
-      <c r="C31" s="109"/>
+      <c r="A31" s="107" t="s">
+        <v>412</v>
+      </c>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
     </row>
     <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="B32" s="105" t="s">
+        <v>398</v>
+      </c>
+      <c r="B32" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="106"/>
+      <c r="C32" s="110"/>
     </row>
     <row r="33" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B33" s="112" t="s">
         <v>371</v>
       </c>
-      <c r="B33" s="108" t="s">
-        <v>372</v>
-      </c>
-      <c r="C33" s="106"/>
+      <c r="C33" s="110"/>
     </row>
     <row r="34" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="B34" s="107" t="s">
-        <v>377</v>
-      </c>
-      <c r="C34" s="106"/>
+        <v>372</v>
+      </c>
+      <c r="B34" s="111" t="s">
+        <v>376</v>
+      </c>
+      <c r="C34" s="110"/>
     </row>
     <row r="35" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="B35" s="107" t="s">
-        <v>376</v>
-      </c>
-      <c r="C35" s="106"/>
+        <v>373</v>
+      </c>
+      <c r="B35" s="111" t="s">
+        <v>375</v>
+      </c>
+      <c r="C35" s="110"/>
     </row>
     <row r="36" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="B36" s="107" t="s">
-        <v>412</v>
-      </c>
-      <c r="C36" s="106"/>
+        <v>374</v>
+      </c>
+      <c r="B36" s="111" t="s">
+        <v>411</v>
+      </c>
+      <c r="C36" s="110"/>
     </row>
     <row r="37" spans="1:3" s="4" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="B37" s="107" t="s">
-        <v>411</v>
-      </c>
-      <c r="C37" s="106"/>
+        <v>377</v>
+      </c>
+      <c r="B37" s="111" t="s">
+        <v>410</v>
+      </c>
+      <c r="C37" s="110"/>
     </row>
     <row r="38" spans="1:3" s="4" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="B38" s="107" t="s">
-        <v>408</v>
-      </c>
-      <c r="C38" s="106"/>
+        <v>378</v>
+      </c>
+      <c r="B38" s="111" t="s">
+        <v>407</v>
+      </c>
+      <c r="C38" s="110"/>
     </row>
     <row r="39" spans="1:3" s="4" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="107" t="s">
-        <v>409</v>
-      </c>
-      <c r="C39" s="106"/>
+      <c r="B39" s="111" t="s">
+        <v>408</v>
+      </c>
+      <c r="C39" s="110"/>
     </row>
     <row r="40" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="B40" s="107" t="s">
-        <v>410</v>
-      </c>
-      <c r="C40" s="106"/>
+        <v>379</v>
+      </c>
+      <c r="B40" s="111" t="s">
+        <v>409</v>
+      </c>
+      <c r="C40" s="110"/>
     </row>
     <row r="41" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B41" s="111" t="s">
         <v>381</v>
       </c>
-      <c r="B41" s="107" t="s">
-        <v>382</v>
-      </c>
-      <c r="C41" s="106"/>
+      <c r="C41" s="110"/>
     </row>
     <row r="42" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="43" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -9082,12 +9055,12 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8" t="s">
@@ -9872,15 +9845,15 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="97" t="s">
+      <c r="A59" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="B59" s="98"/>
-      <c r="C59" s="98"/>
-      <c r="D59" s="98"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="98"/>
-      <c r="G59" s="99"/>
+      <c r="B59" s="115"/>
+      <c r="C59" s="115"/>
+      <c r="D59" s="115"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="115"/>
+      <c r="G59" s="116"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="12" t="s">
@@ -10820,15 +10793,15 @@
       </c>
     </row>
     <row r="102" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="100" t="s">
+      <c r="A102" s="117" t="s">
         <v>233</v>
       </c>
-      <c r="B102" s="100"/>
-      <c r="C102" s="100"/>
-      <c r="D102" s="100"/>
-      <c r="E102" s="100"/>
-      <c r="F102" s="100"/>
-      <c r="G102" s="100"/>
+      <c r="B102" s="117"/>
+      <c r="C102" s="117"/>
+      <c r="D102" s="117"/>
+      <c r="E102" s="117"/>
+      <c r="F102" s="117"/>
+      <c r="G102" s="117"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="12" t="s">
